--- a/FileOutput/HybridResults.xlsx
+++ b/FileOutput/HybridResults.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Live_Project_Qedge\Hybrid_Framework\FileOutput\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Live_Project_Qedge\Hybrid_Framework\FileInput\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="142">
   <si>
     <t>TCID</t>
   </si>
@@ -316,20 +316,153 @@
     <t>ValidateTable</t>
   </si>
   <si>
+    <t>Wait for supplier link</t>
+  </si>
+  <si>
+    <t>Click Supplier link</t>
+  </si>
+  <si>
+    <t>(//a[contains(.,'Suppliers')])[2]</t>
+  </si>
+  <si>
+    <t>Wait for supplir number</t>
+  </si>
+  <si>
+    <t>Capture supplier number</t>
+  </si>
+  <si>
+    <t>Enterr Address</t>
+  </si>
+  <si>
+    <t>Enter City</t>
+  </si>
+  <si>
+    <t>Enter Country</t>
+  </si>
+  <si>
+    <t>Enter ContactPerson</t>
+  </si>
+  <si>
+    <t>Enter Phone number</t>
+  </si>
+  <si>
+    <t>Enter Mobile number</t>
+  </si>
+  <si>
+    <t>Enter Email</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Supplier_Name']</t>
+  </si>
+  <si>
+    <t>//textarea[@id='x_Address']</t>
+  </si>
+  <si>
+    <t>//textarea[@id='x_Notes']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_City']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Country']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Contact_Person']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Phone_Number']</t>
+  </si>
+  <si>
+    <t>//input[@id='x__Email']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Mobile_Number']</t>
+  </si>
+  <si>
+    <t>LG Suppliers</t>
+  </si>
+  <si>
+    <t>test123@gmail.com</t>
+  </si>
+  <si>
+    <t>Kukatpalli,KPHP,9th phase 243</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>QedgeTech</t>
+  </si>
+  <si>
+    <t>I am supplying LG goods</t>
+  </si>
+  <si>
+    <t>supplierTable</t>
+  </si>
+  <si>
+    <t>captureSupplier</t>
+  </si>
+  <si>
+    <t>Click Customer link</t>
+  </si>
+  <si>
+    <t>Wait for Customer link</t>
+  </si>
+  <si>
+    <t>Wait for Customer number</t>
+  </si>
+  <si>
+    <t>Capture Customer number</t>
+  </si>
+  <si>
+    <t>Enter Customer name</t>
+  </si>
+  <si>
+    <t>Enter supplier name</t>
+  </si>
+  <si>
+    <t>CustomerTable</t>
+  </si>
+  <si>
+    <t>captureCustomer</t>
+  </si>
+  <si>
+    <t>Adithya</t>
+  </si>
+  <si>
+    <t>Ameerpet plot number 243</t>
+  </si>
+  <si>
+    <t>I am a customer for Goods</t>
+  </si>
+  <si>
+    <t>(//a[contains(.,'Customers')])[2]</t>
+  </si>
+  <si>
+    <t>x_Customer_Number</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Customer_Name']</t>
+  </si>
+  <si>
+    <t>Blocked</t>
+  </si>
+  <si>
     <t>PASS</t>
   </si>
   <si>
     <t>Pass</t>
-  </si>
-  <si>
-    <t>Blocked</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="72" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="138" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,466 +511,803 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color indexed="17"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="11"/>
-      <color indexed="17"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="12"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
     </font>
   </fonts>
   <fills count="3">
@@ -889,16 +1359,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -919,74 +1391,144 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1268,15 +1810,15 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.88671875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.109375"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="25.6640625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.6640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -1301,10 +1843,10 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>96</v>
+        <v>15</v>
+      </c>
+      <c r="D2" t="s" s="21">
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.35">
@@ -1315,10 +1857,10 @@
         <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>96</v>
+        <v>15</v>
+      </c>
+      <c r="D3" t="s" s="22">
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.35">
@@ -1329,10 +1871,10 @@
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="64" t="s">
-        <v>96</v>
+        <v>15</v>
+      </c>
+      <c r="D4" t="s" s="23">
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.35">
@@ -1343,10 +1885,10 @@
         <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="65" t="s">
-        <v>97</v>
+        <v>14</v>
+      </c>
+      <c r="D5" t="s" s="85">
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.35">
@@ -1357,10 +1899,10 @@
         <v>13</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="66" t="s">
-        <v>97</v>
+        <v>14</v>
+      </c>
+      <c r="D6" t="s" s="147">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1379,12 +1921,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.44140625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.44140625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="21.5546875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="31.21875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="30.0"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.6640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.8" x14ac:dyDescent="0.5">
@@ -1423,9 +1965,7 @@
       <c r="E2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>95</v>
-      </c>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -1443,9 +1983,7 @@
       <c r="E3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>95</v>
-      </c>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -1463,9 +2001,7 @@
       <c r="E4" s="4">
         <v>10</v>
       </c>
-      <c r="F4" s="16" t="s">
-        <v>95</v>
-      </c>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -1483,9 +2019,7 @@
       <c r="E5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="17" t="s">
-        <v>95</v>
-      </c>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
@@ -1503,9 +2037,7 @@
       <c r="E6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="18" t="s">
-        <v>95</v>
-      </c>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
@@ -1523,9 +2055,7 @@
       <c r="E7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="19" t="s">
-        <v>95</v>
-      </c>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -1543,9 +2073,7 @@
       <c r="E8" s="4">
         <v>10</v>
       </c>
-      <c r="F8" s="20" t="s">
-        <v>95</v>
-      </c>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
@@ -1563,9 +2091,7 @@
       <c r="E9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="21" t="s">
-        <v>95</v>
-      </c>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
@@ -1583,9 +2109,7 @@
       <c r="E10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="22" t="s">
-        <v>95</v>
-      </c>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
@@ -1603,9 +2127,7 @@
       <c r="E11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="23" t="s">
-        <v>95</v>
-      </c>
+      <c r="F11" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1618,17 +2140,17 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="27.6640625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.44140625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="21.5546875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="42.44140625"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="30.0"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.6640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.8" x14ac:dyDescent="0.5">
@@ -1667,9 +2189,7 @@
       <c r="E2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="25" t="s">
-        <v>95</v>
-      </c>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -1687,9 +2207,7 @@
       <c r="E3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="26" t="s">
-        <v>95</v>
-      </c>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -1707,9 +2225,7 @@
       <c r="E4" s="4">
         <v>10</v>
       </c>
-      <c r="F4" s="27" t="s">
-        <v>95</v>
-      </c>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -1727,9 +2243,7 @@
       <c r="E5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="28" t="s">
-        <v>95</v>
-      </c>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
@@ -1747,9 +2261,7 @@
       <c r="E6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="29" t="s">
-        <v>95</v>
-      </c>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
@@ -1767,9 +2279,7 @@
       <c r="E7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="30" t="s">
-        <v>95</v>
-      </c>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -1787,9 +2297,7 @@
       <c r="E8" s="4">
         <v>10</v>
       </c>
-      <c r="F8" s="31" t="s">
-        <v>95</v>
-      </c>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
@@ -1807,9 +2315,7 @@
       <c r="E9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="32" t="s">
-        <v>95</v>
-      </c>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
@@ -1824,12 +2330,10 @@
       <c r="D10" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="7">
         <v>10</v>
       </c>
-      <c r="F10" s="33" t="s">
-        <v>95</v>
-      </c>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
@@ -1847,9 +2351,7 @@
       <c r="E11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="67" t="s">
-        <v>95</v>
-      </c>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
@@ -1867,9 +2369,7 @@
       <c r="E12" s="5">
         <v>10</v>
       </c>
-      <c r="F12" s="68" t="s">
-        <v>95</v>
-      </c>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
@@ -1887,9 +2387,7 @@
       <c r="E13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="69" t="s">
-        <v>95</v>
-      </c>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
@@ -1904,12 +2402,10 @@
       <c r="D14" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="7">
         <v>10</v>
       </c>
-      <c r="F14" s="70" t="s">
-        <v>95</v>
-      </c>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
@@ -1927,9 +2423,7 @@
       <c r="E15" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="71" t="s">
-        <v>95</v>
-      </c>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
@@ -1947,9 +2441,7 @@
       <c r="E16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="72" t="s">
-        <v>95</v>
-      </c>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
@@ -1967,9 +2459,7 @@
       <c r="E17" s="5">
         <v>10</v>
       </c>
-      <c r="F17" s="73" t="s">
-        <v>95</v>
-      </c>
+      <c r="F17" s="7"/>
     </row>
     <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
@@ -1987,9 +2477,7 @@
       <c r="E18" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="74" t="s">
-        <v>95</v>
-      </c>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
@@ -2007,9 +2495,7 @@
       <c r="E19" s="5">
         <v>10</v>
       </c>
-      <c r="F19" s="75" t="s">
-        <v>95</v>
-      </c>
+      <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
@@ -2027,9 +2513,7 @@
       <c r="E20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="76" t="s">
-        <v>95</v>
-      </c>
+      <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
@@ -2047,9 +2531,7 @@
       <c r="E21" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F21" s="77" t="s">
-        <v>95</v>
-      </c>
+      <c r="F21" s="7"/>
     </row>
     <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
@@ -2067,9 +2549,7 @@
       <c r="E22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="78" t="s">
-        <v>95</v>
-      </c>
+      <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
@@ -2087,9 +2567,7 @@
       <c r="E23" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="79" t="s">
-        <v>95</v>
-      </c>
+      <c r="F23" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2101,18 +2579,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F30"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="38.44140625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.109375"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="22.33203125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="42.44140625"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="14" width="30.0"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.88671875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.8" x14ac:dyDescent="0.5">
@@ -2128,7 +2606,7 @@
       <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -2148,12 +2626,10 @@
       <c r="D2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>95</v>
-      </c>
+      <c r="E2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -2168,12 +2644,10 @@
       <c r="D3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>95</v>
-      </c>
+      <c r="E3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -2188,12 +2662,10 @@
       <c r="D4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="10">
         <v>10</v>
       </c>
-      <c r="F4" s="37" t="s">
-        <v>95</v>
-      </c>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -2208,12 +2680,10 @@
       <c r="D5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="38" t="s">
-        <v>95</v>
-      </c>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
@@ -2228,12 +2698,10 @@
       <c r="D6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="39" t="s">
-        <v>95</v>
-      </c>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
@@ -2248,12 +2716,10 @@
       <c r="D7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="40" t="s">
-        <v>95</v>
-      </c>
+      <c r="E7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -2268,12 +2734,10 @@
       <c r="D8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="10">
         <v>10</v>
       </c>
-      <c r="F8" s="41" t="s">
-        <v>95</v>
-      </c>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
@@ -2288,12 +2752,10 @@
       <c r="D9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="42" t="s">
-        <v>95</v>
-      </c>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
@@ -2308,32 +2770,28 @@
       <c r="D10" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="11">
         <v>10</v>
       </c>
-      <c r="F10" s="43" t="s">
-        <v>95</v>
-      </c>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="44" t="s">
-        <v>95</v>
-      </c>
+      <c r="E11" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
@@ -2348,12 +2806,10 @@
       <c r="D12" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="13">
         <v>10</v>
       </c>
-      <c r="F12" s="45" t="s">
-        <v>95</v>
-      </c>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
@@ -2368,12 +2824,10 @@
       <c r="D13" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="46" t="s">
-        <v>95</v>
-      </c>
+      <c r="E13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
@@ -2388,12 +2842,10 @@
       <c r="D14" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="11">
         <v>10</v>
       </c>
-      <c r="F14" s="47" t="s">
-        <v>95</v>
-      </c>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
@@ -2408,12 +2860,10 @@
       <c r="D15" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="13">
         <v>1</v>
       </c>
-      <c r="F15" s="48" t="s">
-        <v>95</v>
-      </c>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
@@ -2428,12 +2878,10 @@
       <c r="D16" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="13">
         <v>1</v>
       </c>
-      <c r="F16" s="49" t="s">
-        <v>95</v>
-      </c>
+      <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
@@ -2448,12 +2896,10 @@
       <c r="D17" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="50" t="s">
-        <v>95</v>
-      </c>
+      <c r="E17" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
@@ -2468,12 +2914,10 @@
       <c r="D18" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="F18" s="51" t="s">
-        <v>95</v>
-      </c>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
@@ -2488,12 +2932,10 @@
       <c r="D19" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="13">
         <v>2</v>
       </c>
-      <c r="F19" s="52" t="s">
-        <v>95</v>
-      </c>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
@@ -2508,12 +2950,10 @@
       <c r="D20" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="13">
         <v>300000</v>
       </c>
-      <c r="F20" s="53" t="s">
-        <v>95</v>
-      </c>
+      <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
@@ -2528,12 +2968,10 @@
       <c r="D21" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="13">
         <v>4000000</v>
       </c>
-      <c r="F21" s="54" t="s">
-        <v>95</v>
-      </c>
+      <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
@@ -2548,12 +2986,10 @@
       <c r="D22" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F22" s="55" t="s">
-        <v>95</v>
-      </c>
+      <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
@@ -2568,12 +3004,10 @@
       <c r="D23" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" s="56" t="s">
-        <v>95</v>
-      </c>
+      <c r="E23" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
@@ -2588,12 +3022,10 @@
       <c r="D24" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="13">
         <v>10</v>
       </c>
-      <c r="F24" s="57" t="s">
-        <v>95</v>
-      </c>
+      <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
@@ -2608,12 +3040,10 @@
       <c r="D25" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="58" t="s">
-        <v>95</v>
-      </c>
+      <c r="E25" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
@@ -2628,12 +3058,10 @@
       <c r="D26" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="13">
         <v>10</v>
       </c>
-      <c r="F26" s="59" t="s">
-        <v>95</v>
-      </c>
+      <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
@@ -2648,32 +3076,28 @@
       <c r="D27" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" s="60" t="s">
-        <v>95</v>
-      </c>
+      <c r="E27" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F28" s="61" t="s">
-        <v>95</v>
-      </c>
+      <c r="C28" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
@@ -2691,9 +3115,7 @@
       <c r="E29" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="62" t="s">
-        <v>95</v>
-      </c>
+      <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
@@ -2711,9 +3133,7 @@
       <c r="E30" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F30" s="63" t="s">
-        <v>95</v>
-      </c>
+      <c r="F30" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2723,48 +3143,689 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="27.6640625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.109375"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="22.33203125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="42.44140625"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="30.0"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.88671875"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="15" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s" s="24">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s" s="26">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="10">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s" s="28">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s" s="30">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s" s="32">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s" s="34">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="10">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s" s="36">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" t="s" s="38">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="18">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s" s="40">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s" s="42">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="13">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s" s="44">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s" s="46">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="4">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s" s="48">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" t="s" s="50">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" t="s" s="52">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="F17" t="s" s="54">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" t="s" s="56">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F19" t="s" s="58">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F20" t="s" s="60">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" s="4">
+        <v>2467891</v>
+      </c>
+      <c r="F21" t="s" s="62">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" t="s" s="64">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" s="16">
+        <v>9989786487</v>
+      </c>
+      <c r="F23" t="s" s="66">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F24" t="s" s="68">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" t="s" s="70">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="13">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s" s="72">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" t="s" s="74">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="13">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s" s="76">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" t="s" s="78">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" t="s" s="80">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" t="s" s="82">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" t="s" s="84">
+        <v>140</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E23" r:id="rId1" display="test123@gmail.com"/>
+    <hyperlink ref="E22" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="27.6640625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.109375"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="22.33203125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="42.44140625"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="30.0"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.88671875"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
@@ -2786,7 +3847,631 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s" s="86">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s" s="88">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="10">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s" s="90">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s" s="92">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s" s="94">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s" s="96">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="10">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s" s="98">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" t="s" s="100">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" s="18">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s" s="102">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s" s="104">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="13">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s" s="106">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s" s="108">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E14" s="4">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s" s="110">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" t="s" s="112">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F16" t="s" s="114">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="F17" t="s" s="116">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F18" t="s" s="118">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F19" t="s" s="120">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F20" t="s" s="122">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" s="4">
+        <v>6991234</v>
+      </c>
+      <c r="F21" t="s" s="124">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" t="s" s="126">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" s="16">
+        <v>9948016056</v>
+      </c>
+      <c r="F23" t="s" s="128">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F24" t="s" s="130">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" t="s" s="132">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="13">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s" s="134">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" t="s" s="136">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="13">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s" s="138">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" t="s" s="140">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" t="s" s="142">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" t="s" s="144">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" t="s" s="146">
+        <v>140</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E23" r:id="rId1" display="test123@gmail.com"/>
+    <hyperlink ref="E22" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>